--- a/data/trans_dic/P57_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P57_R-Habitat-trans_dic.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,82; 29,7</t>
+          <t>13,74; 30,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,51; 23,96</t>
+          <t>10,43; 25,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,7; 28,42</t>
+          <t>13,75; 27,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,13; 20,06</t>
+          <t>11,18; 19,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,45; 26,17</t>
+          <t>15,18; 26,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,18; 20,29</t>
+          <t>11,88; 20,11</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,24; 21,76</t>
+          <t>15,19; 21,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,21; 20,61</t>
+          <t>14,17; 20,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21,11; 28,69</t>
+          <t>21,32; 28,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,12; 23,41</t>
+          <t>18,22; 23,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,4; 24,4</t>
+          <t>19,47; 24,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,03; 21,11</t>
+          <t>17,23; 21,06</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,69; 22,72</t>
+          <t>17,51; 22,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,84; 14,24</t>
+          <t>9,69; 14,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,08; 26,71</t>
+          <t>21,34; 26,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,56; 19,39</t>
+          <t>15,56; 19,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,11; 23,81</t>
+          <t>20,18; 23,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,13; 16,36</t>
+          <t>12,99; 16,27</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,7; 20,22</t>
+          <t>14,8; 20,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,31; 11,52</t>
+          <t>7,0; 11,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,67; 22,44</t>
+          <t>16,71; 22,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,83; 11,19</t>
+          <t>5,86; 11,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,34; 20,68</t>
+          <t>16,55; 20,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,85; 10,73</t>
+          <t>6,9; 10,48</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,3; 19,95</t>
+          <t>15,03; 19,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,72; 19,47</t>
+          <t>14,84; 19,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,88; 28,72</t>
+          <t>22,83; 28,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>18,78; 23,28</t>
+          <t>18,85; 23,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,94; 23,74</t>
+          <t>20,02; 23,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,51; 20,69</t>
+          <t>17,65; 20,73</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,29; 20,1</t>
+          <t>17,2; 19,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,49; 14,94</t>
+          <t>12,49; 14,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,03; 24,96</t>
+          <t>22,06; 24,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,26; 18,25</t>
+          <t>15,09; 18,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,09; 22,08</t>
+          <t>19,89; 22,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>14,53; 16,4</t>
+          <t>14,39; 16,34</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P57_R-Habitat-trans_dic.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,74; 30,4</t>
+          <t>14,04; 29,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,75; 27,64</t>
+          <t>13,55; 29,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,18; 26,43</t>
+          <t>15,78; 27,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,19; 21,76</t>
+          <t>15,43; 22,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21,32; 28,5</t>
+          <t>21,31; 28,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,47; 24,44</t>
+          <t>19,09; 24,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -751,7 +751,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,51; 22,64</t>
+          <t>17,72; 22,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,34; 26,83</t>
+          <t>21,15; 26,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,18; 23,83</t>
+          <t>20,16; 23,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,8; 20,25</t>
+          <t>14,68; 20,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,71; 22,56</t>
+          <t>16,52; 22,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,55; 20,55</t>
+          <t>16,51; 20,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,03; 19,97</t>
+          <t>15,01; 20,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,83; 28,61</t>
+          <t>22,96; 28,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,02; 23,98</t>
+          <t>20,07; 23,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,2; 19,9</t>
+          <t>17,26; 19,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,06; 24,93</t>
+          <t>22,06; 24,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,89; 22,07</t>
+          <t>19,94; 22,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">

--- a/data/trans_dic/P57_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P57_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con felicidad &lt;= 6 (Likert 0 a 10)</t>
+          <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,04; 29,21</t>
+          <t>13,82; 29,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,43; 25,03</t>
+          <t>10,51; 23,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,55; 29,67</t>
+          <t>13,7; 28,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,18; 19,97</t>
+          <t>11,13; 20,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,78; 27,01</t>
+          <t>15,45; 26,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,88; 20,11</t>
+          <t>12,18; 20,29</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,43; 22,23</t>
+          <t>15,24; 21,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,17; 20,33</t>
+          <t>14,21; 20,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21,31; 28,62</t>
+          <t>21,11; 28,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,22; 23,56</t>
+          <t>18,12; 23,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,09; 24,3</t>
+          <t>19,4; 24,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,23; 21,06</t>
+          <t>17,03; 21,11</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,72; 22,85</t>
+          <t>17,69; 22,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,69; 14,13</t>
+          <t>9,84; 14,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,15; 26,62</t>
+          <t>21,08; 26,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,56; 19,47</t>
+          <t>15,56; 19,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,16; 23,81</t>
+          <t>20,11; 23,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,99; 16,27</t>
+          <t>13,13; 16,36</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,68; 20,22</t>
+          <t>14,7; 20,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,0; 11,75</t>
+          <t>7,31; 11,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,52; 22,4</t>
+          <t>16,67; 22,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,86; 11,11</t>
+          <t>5,83; 11,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,51; 20,55</t>
+          <t>16,34; 20,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,9; 10,48</t>
+          <t>6,85; 10,73</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,01; 20,07</t>
+          <t>15,3; 19,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,84; 19,62</t>
+          <t>14,72; 19,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,96; 28,6</t>
+          <t>22,88; 28,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>18,85; 23,36</t>
+          <t>18,78; 23,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,07; 23,87</t>
+          <t>19,94; 23,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,65; 20,73</t>
+          <t>17,51; 20,69</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,26; 19,87</t>
+          <t>17,29; 20,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,49; 14,93</t>
+          <t>12,49; 14,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,06; 24,97</t>
+          <t>22,03; 24,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,09; 18,21</t>
+          <t>15,26; 18,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,94; 22,08</t>
+          <t>20,09; 22,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>14,39; 16,34</t>
+          <t>14,53; 16,4</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P57_R-Habitat-trans_dic.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10)</t>
+          <t>Población con autopercepción de la felicidad menor o igual a 6 (Likert 0 a 10)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20,73%</t>
+          <t>18,92%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>16,31%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>20,28%</t>
+          <t>24,07%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>19,28%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>20,51%</t>
+          <t>21,49%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>17,85%</t>
         </is>
       </c>
     </row>
@@ -639,39 +639,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,82; 29,7</t>
+          <t>16,19; 22,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,51; 23,96</t>
+          <t>13,73; 19,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,7; 28,42</t>
+          <t>20,87; 27,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,13; 20,06</t>
+          <t>16,89; 21,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,45; 26,17</t>
+          <t>19,22; 23,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,18; 20,29</t>
+          <t>16,17; 19,54</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -681,32 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>20,1%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,13%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>24,85%</t>
+          <t>23,78%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>17,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>21,69%</t>
+          <t>21,96%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,07%</t>
+          <t>12,95%</t>
         </is>
       </c>
     </row>
@@ -719,39 +719,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,24; 21,76</t>
+          <t>17,69; 22,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,21; 20,61</t>
+          <t>5,43; 12,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21,11; 28,69</t>
+          <t>21,08; 26,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,12; 23,41</t>
+          <t>15,22; 18,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,4; 24,4</t>
+          <t>20,11; 23,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,03; 21,11</t>
+          <t>8,57; 15,2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>20,1%</t>
+          <t>17,32%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>8,9%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>23,78%</t>
+          <t>19,52%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>21,96%</t>
+          <t>18,43%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>8,07%</t>
         </is>
       </c>
     </row>
@@ -799,39 +799,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,69; 22,72</t>
+          <t>14,7; 20,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,84; 14,24</t>
+          <t>7,08; 11,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,08; 26,71</t>
+          <t>16,67; 22,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,56; 19,39</t>
+          <t>3,84; 10,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,11; 23,81</t>
+          <t>16,34; 20,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,13; 16,36</t>
+          <t>5,02; 9,89</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,32%</t>
+          <t>17,48%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>16,19%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>25,72%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>19,53%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>21,82%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>18,0%</t>
         </is>
       </c>
     </row>
@@ -879,39 +879,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,7; 20,22</t>
+          <t>15,3; 19,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,31; 11,52</t>
+          <t>14,02; 18,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,67; 22,44</t>
+          <t>22,88; 28,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,83; 11,19</t>
+          <t>15,9; 21,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,34; 20,68</t>
+          <t>19,94; 23,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,85; 10,73</t>
+          <t>15,86; 19,63</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -921,32 +921,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>17,48%</t>
+          <t>18,52%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>16,96%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>25,72%</t>
+          <t>23,47%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>20,98%</t>
+          <t>15,76%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>21,82%</t>
+          <t>21,05%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,14%</t>
+          <t>14,16%</t>
         </is>
       </c>
     </row>
@@ -959,124 +959,44 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,3; 19,95</t>
+          <t>17,29; 20,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,72; 19,47</t>
+          <t>9,92; 13,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,88; 28,72</t>
+          <t>22,03; 24,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>18,78; 23,28</t>
+          <t>12,79; 17,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,94; 23,74</t>
+          <t>20,09; 22,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,51; 20,69</t>
+          <t>12,43; 15,38</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>18,52%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>13,73%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>23,47%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>17,03%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>21,05%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>15,47%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>17,29; 20,1</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>12,49; 14,94</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>22,03; 24,96</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>15,26; 18,25</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>20,09; 22,08</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>14,53; 16,4</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
@@ -1086,7 +1006,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P57_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P57_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,19; 22,25</t>
+          <t>15,88; 22,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,73; 19,29</t>
+          <t>13,63; 18,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,87; 27,6</t>
+          <t>20,58; 27,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,89; 21,68</t>
+          <t>17,22; 21,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>19,22; 23,44</t>
+          <t>19,07; 24,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,17; 19,54</t>
+          <t>16,16; 19,74</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,69; 22,72</t>
+          <t>17,72; 22,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,43; 12,93</t>
+          <t>5,08; 12,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21,08; 26,71</t>
+          <t>21,1; 26,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,22; 18,99</t>
+          <t>15,29; 19,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>20,11; 23,81</t>
+          <t>20,13; 23,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,57; 15,2</t>
+          <t>8,49; 14,99</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,7; 20,22</t>
+          <t>14,72; 20,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,08; 11,4</t>
+          <t>6,69; 11,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,67; 22,44</t>
+          <t>16,77; 22,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,84; 10,19</t>
+          <t>3,42; 10,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,34; 20,68</t>
+          <t>16,51; 20,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,02; 9,89</t>
+          <t>5,13; 10,16</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,3; 19,95</t>
+          <t>15,08; 20,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,02; 18,7</t>
+          <t>14,01; 18,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,88; 28,72</t>
+          <t>22,83; 28,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,9; 21,96</t>
+          <t>15,7; 22,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,94; 23,74</t>
+          <t>20,07; 23,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,86; 19,63</t>
+          <t>15,84; 19,71</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,29; 20,1</t>
+          <t>17,16; 19,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,92; 13,94</t>
+          <t>9,79; 13,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,03; 24,96</t>
+          <t>22,11; 25,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,79; 17,28</t>
+          <t>12,85; 17,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,09; 22,08</t>
+          <t>20,07; 22,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,43; 15,38</t>
+          <t>12,3; 15,33</t>
         </is>
       </c>
     </row>
@@ -1009,4 +1010,714 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con autopercepción de la felicidad menor o igual a 6 (Likert 0 a 10)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>126667</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>102552</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>160644</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>129235</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>287311</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>231787</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>106306; 148148</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>85708; 119313</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>137347; 181629</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>115388; 146435</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>254922; 321567</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>209942; 256360</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>205315</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>114896</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>247779</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>162421</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>453094</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>277317</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>180937; 230121</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>60488; 152794</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>219883; 278460</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>145263; 181504</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>415347; 493977</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>181872; 320962</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>130986</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>62693</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>152087</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>69111</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>283073</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>131805</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>111369; 155181</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>47118; 81305</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>130705; 177105</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>31758; 96077</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>253622; 315437</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>83852; 165977</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>544</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>163125</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>149735</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>267394</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>213083</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>430518</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>362817</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>140782; 187229</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>129601; 173985</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>237290; 297506</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>171277; 241146</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>395965; 468633</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>319367; 397310</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>604</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>744</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1020</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1348</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1575</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>626093</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>429876</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>827903</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>573850</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1453996</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1003726</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>580009; 668542</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>337766; 478937</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>780032; 882980</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>467756; 632423</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1386274; 1529294</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>872095; 1086800</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>